--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H2">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I2">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J2">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>1306.449416874734</v>
+        <v>1030.002184132743</v>
       </c>
       <c r="R2">
-        <v>5225.797667498936</v>
+        <v>4120.00873653097</v>
       </c>
       <c r="S2">
-        <v>0.006564866750439823</v>
+        <v>0.004998919010481979</v>
       </c>
       <c r="T2">
-        <v>0.00331236733414386</v>
+        <v>0.002524566089296063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H3">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I3">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J3">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>1926.123921671809</v>
+        <v>1677.735916507185</v>
       </c>
       <c r="R3">
-        <v>11556.74353003085</v>
+        <v>10066.41549904311</v>
       </c>
       <c r="S3">
-        <v>0.009678711419886857</v>
+        <v>0.008142571051592362</v>
       </c>
       <c r="T3">
-        <v>0.007325231896372572</v>
+        <v>0.00616827119426122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H4">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I4">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J4">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>910.8190957402877</v>
+        <v>919.0430551671973</v>
       </c>
       <c r="R4">
-        <v>5464.914574441726</v>
+        <v>5514.258331003184</v>
       </c>
       <c r="S4">
-        <v>0.004576836975131356</v>
+        <v>0.004460400056136828</v>
       </c>
       <c r="T4">
-        <v>0.003463931378906788</v>
+        <v>0.003378902929655061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H5">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I5">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J5">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>306.2025287232295</v>
+        <v>393.5647656547968</v>
       </c>
       <c r="R5">
-        <v>1224.810114892918</v>
+        <v>1574.259062619187</v>
       </c>
       <c r="S5">
-        <v>0.001538657963906816</v>
+        <v>0.001910091472810021</v>
       </c>
       <c r="T5">
-        <v>0.0007763448325472536</v>
+        <v>0.0009646389848682138</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H6">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I6">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J6">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>706.0151737754064</v>
+        <v>625.5070015570736</v>
       </c>
       <c r="R6">
-        <v>4236.091042652439</v>
+        <v>3753.042009342442</v>
       </c>
       <c r="S6">
-        <v>0.003547703783826302</v>
+        <v>0.003035778845368215</v>
       </c>
       <c r="T6">
-        <v>0.002685042645529138</v>
+        <v>0.002299704489575241</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H7">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I7">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J7">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>670.3008004685043</v>
+        <v>692.6332648110235</v>
       </c>
       <c r="R7">
-        <v>4021.804802811026</v>
+        <v>4155.799588866141</v>
       </c>
       <c r="S7">
-        <v>0.003368240194339501</v>
+        <v>0.003361563352092661</v>
       </c>
       <c r="T7">
-        <v>0.00254921749764374</v>
+        <v>0.002546497201070465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J8">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>39402.72944195948</v>
+        <v>35664.19913078831</v>
       </c>
       <c r="R8">
-        <v>236416.3766517568</v>
+        <v>213985.1947847299</v>
       </c>
       <c r="S8">
-        <v>0.1979974617072361</v>
+        <v>0.1730893834740998</v>
       </c>
       <c r="T8">
-        <v>0.1498523159724094</v>
+        <v>0.1311210244713715</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J9">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>58092.21449910693</v>
@@ -1013,10 +1013,10 @@
         <v>522829.9304919624</v>
       </c>
       <c r="S9">
-        <v>0.2919115294466635</v>
+        <v>0.2819394753663523</v>
       </c>
       <c r="T9">
-        <v>0.3313952994860442</v>
+        <v>0.3203679403117945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J10">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>27470.45383959619</v>
+        <v>31822.19905373214</v>
       </c>
       <c r="R10">
-        <v>247234.0845563657</v>
+        <v>286399.7914835893</v>
       </c>
       <c r="S10">
-        <v>0.138038156473339</v>
+        <v>0.1544429693991232</v>
       </c>
       <c r="T10">
-        <v>0.1567091107764618</v>
+        <v>0.1754936088241709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J11">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>9235.118664285863</v>
+        <v>13627.32272746888</v>
       </c>
       <c r="R11">
-        <v>55410.71198571518</v>
+        <v>81763.93636481329</v>
       </c>
       <c r="S11">
-        <v>0.04640617743974209</v>
+        <v>0.06613760989417286</v>
       </c>
       <c r="T11">
-        <v>0.03512203189278452</v>
+        <v>0.05010146198082393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J12">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>21293.53384437822</v>
+        <v>21658.40675378491</v>
       </c>
       <c r="R12">
-        <v>191641.804599404</v>
+        <v>194925.6607840642</v>
       </c>
       <c r="S12">
-        <v>0.1069993300381464</v>
+        <v>0.1051149433720943</v>
       </c>
       <c r="T12">
-        <v>0.1214719921820577</v>
+        <v>0.119442152825002</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J13">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>20216.38246719946</v>
+        <v>23982.6779606565</v>
       </c>
       <c r="R13">
-        <v>181947.4422047952</v>
+        <v>215844.1016459085</v>
       </c>
       <c r="S13">
-        <v>0.1015866786412426</v>
+        <v>0.1163953500552406</v>
       </c>
       <c r="T13">
-        <v>0.1153272289584515</v>
+        <v>0.1322600835183294</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H14">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I14">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J14">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>48.04913755015001</v>
+        <v>5.845124402713334</v>
       </c>
       <c r="R14">
-        <v>288.2948253009001</v>
+        <v>35.07074641628</v>
       </c>
       <c r="S14">
-        <v>0.0002414453873345287</v>
+        <v>2.836819566548622E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001827354258027455</v>
+        <v>2.148986150048577E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H15">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I15">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J15">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>70.83978304528334</v>
+        <v>9.520926555259555</v>
       </c>
       <c r="R15">
-        <v>637.5580474075501</v>
+        <v>85.68833899733599</v>
       </c>
       <c r="S15">
-        <v>0.0003559676557817637</v>
+        <v>4.620799983503329E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004041156172171569</v>
+        <v>5.250616897063313E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H16">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I16">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J16">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>33.49848180055834</v>
+        <v>5.215446211335111</v>
       </c>
       <c r="R16">
-        <v>301.4863362050251</v>
+        <v>46.939015902016</v>
       </c>
       <c r="S16">
-        <v>0.000168328805173928</v>
+        <v>2.531217274645051E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001910968535860256</v>
+        <v>2.876223216723935E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H17">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I17">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J17">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>11.2616433753875</v>
+        <v>2.233427318131334</v>
       </c>
       <c r="R17">
-        <v>67.56986025232501</v>
+        <v>13.400563908788</v>
       </c>
       <c r="S17">
-        <v>5.658939963190404E-05</v>
+        <v>1.083951320796194E-05</v>
       </c>
       <c r="T17">
-        <v>4.282909751069358E-05</v>
+        <v>8.211295505663445E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H18">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I18">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J18">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>25.96611836559168</v>
+        <v>3.549668432934223</v>
       </c>
       <c r="R18">
-        <v>233.6950652903251</v>
+        <v>31.947015896408</v>
       </c>
       <c r="S18">
-        <v>0.0001304789185822739</v>
+        <v>1.72276382357805E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001481274151183824</v>
+        <v>1.957577232085747E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H19">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I19">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J19">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>24.65260035764167</v>
+        <v>3.930600983809334</v>
       </c>
       <c r="R19">
-        <v>221.873403218775</v>
+        <v>35.375408854284</v>
       </c>
       <c r="S19">
-        <v>0.0001238785323865933</v>
+        <v>1.907642166519076E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001406342648334747</v>
+        <v>2.167654568220786E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H20">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I20">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J20">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>2657.328355830698</v>
+        <v>3036.192355144035</v>
       </c>
       <c r="R20">
-        <v>10629.31342332279</v>
+        <v>12144.76942057614</v>
       </c>
       <c r="S20">
-        <v>0.01335299043565385</v>
+        <v>0.01473558009625884</v>
       </c>
       <c r="T20">
-        <v>0.006737381124945444</v>
+        <v>0.007441798064564819</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H21">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I21">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J21">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>3917.75115652494</v>
+        <v>4945.551613503378</v>
       </c>
       <c r="R21">
-        <v>23506.50693914964</v>
+        <v>29673.30968102027</v>
       </c>
       <c r="S21">
-        <v>0.01968657490428793</v>
+        <v>0.02400229082900249</v>
       </c>
       <c r="T21">
-        <v>0.01489957910336204</v>
+        <v>0.01818254187513207</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H22">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I22">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J22">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>1852.613181100154</v>
+        <v>2709.112214646768</v>
       </c>
       <c r="R22">
-        <v>11115.67908660092</v>
+        <v>16254.67328788061</v>
       </c>
       <c r="S22">
-        <v>0.009309322287521134</v>
+        <v>0.01314815906213782</v>
       </c>
       <c r="T22">
-        <v>0.007045663580179254</v>
+        <v>0.009960172319858247</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H23">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I23">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J23">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>622.8183438971366</v>
+        <v>1160.131843546799</v>
       </c>
       <c r="R23">
-        <v>2491.273375588547</v>
+        <v>4640.527374187194</v>
       </c>
       <c r="S23">
-        <v>0.003129642360892373</v>
+        <v>0.005630478475397284</v>
       </c>
       <c r="T23">
-        <v>0.001579091475554815</v>
+        <v>0.002843517767680109</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H24">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I24">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J24">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>1436.040398263664</v>
+        <v>1843.840338858834</v>
       </c>
       <c r="R24">
-        <v>8616.242389581987</v>
+        <v>11063.04203315301</v>
       </c>
       <c r="S24">
-        <v>0.00721605730851914</v>
+        <v>0.008948727162142683</v>
       </c>
       <c r="T24">
-        <v>0.005461397790392506</v>
+        <v>0.00677896153804554</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H25">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I25">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J25">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>1363.39708297467</v>
+        <v>2041.712004046257</v>
       </c>
       <c r="R25">
-        <v>8180.382497848022</v>
+        <v>12250.27202427754</v>
       </c>
       <c r="S25">
-        <v>0.00685102696059855</v>
+        <v>0.009909059522577422</v>
       </c>
       <c r="T25">
-        <v>0.005185128374792643</v>
+        <v>0.007506445572050753</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H26">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I26">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J26">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>1149.553388825175</v>
+        <v>12.443794592975</v>
       </c>
       <c r="R26">
-        <v>6897.320332951048</v>
+        <v>74.66276755785</v>
       </c>
       <c r="S26">
-        <v>0.005776469201698459</v>
+        <v>6.039358198617062E-05</v>
       </c>
       <c r="T26">
-        <v>0.004371860530705852</v>
+        <v>4.575016781839425E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H27">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I27">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J27">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>1694.809039566026</v>
+        <v>20.26927850046333</v>
       </c>
       <c r="R27">
-        <v>15253.28135609424</v>
+        <v>182.42350650417</v>
       </c>
       <c r="S27">
-        <v>0.008516361497414688</v>
+        <v>9.837307452899684E-05</v>
       </c>
       <c r="T27">
-        <v>0.00966827920197934</v>
+        <v>0.0001117813645217365</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H28">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I28">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J28">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>801.4356810075576</v>
+        <v>11.10326092194667</v>
       </c>
       <c r="R28">
-        <v>7212.921129068017</v>
+        <v>99.92934829752001</v>
       </c>
       <c r="S28">
-        <v>0.004027188796523517</v>
+        <v>5.388755767328324E-05</v>
       </c>
       <c r="T28">
-        <v>0.004571903822505928</v>
+        <v>6.123245365974429E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H29">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I29">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J29">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>269.4296082298123</v>
+        <v>4.7547851628725</v>
       </c>
       <c r="R29">
-        <v>1616.577649378874</v>
+        <v>28.528710977235</v>
       </c>
       <c r="S29">
-        <v>0.001353875208489237</v>
+        <v>2.307644227128917E-05</v>
       </c>
       <c r="T29">
-        <v>0.001024666345620764</v>
+        <v>1.748118048048087E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H30">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I30">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J30">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>621.2273702238039</v>
+        <v>7.556955474223334</v>
       </c>
       <c r="R30">
-        <v>5591.046332014234</v>
+        <v>68.01259926801001</v>
       </c>
       <c r="S30">
-        <v>0.003121647768806388</v>
+        <v>3.66762410443514E-05</v>
       </c>
       <c r="T30">
-        <v>0.003543879884410501</v>
+        <v>4.16752275873747E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H31">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I31">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J31">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>589.802059504213</v>
+        <v>8.367929901845001</v>
       </c>
       <c r="R31">
-        <v>5308.218535537917</v>
+        <v>75.31136911660501</v>
       </c>
       <c r="S31">
-        <v>0.002963736582348977</v>
+        <v>4.061215064309283E-05</v>
       </c>
       <c r="T31">
-        <v>0.003364609730102287</v>
+        <v>4.614760326220259E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H32">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I32">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J32">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N32">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O32">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P32">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q32">
-        <v>62.658980170886</v>
+        <v>5.430352729986667</v>
       </c>
       <c r="R32">
-        <v>375.953881025316</v>
+        <v>32.58211637992</v>
       </c>
       <c r="S32">
-        <v>0.0003148593816393879</v>
+        <v>2.63551805168353E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002382980424974743</v>
+        <v>1.996493488009027E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H33">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I33">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J33">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P33">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q33">
-        <v>92.37935970258467</v>
+        <v>8.845318927233777</v>
       </c>
       <c r="R33">
-        <v>831.414237323262</v>
+        <v>79.607870345104</v>
       </c>
       <c r="S33">
-        <v>0.0004642033431261177</v>
+        <v>4.292906716149883E-05</v>
       </c>
       <c r="T33">
-        <v>0.0005269911956177481</v>
+        <v>4.878031644261696E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H34">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I34">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J34">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N34">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O34">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P34">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q34">
-        <v>43.68404541507567</v>
+        <v>4.845356680291555</v>
       </c>
       <c r="R34">
-        <v>393.1564087356809</v>
+        <v>43.608210122624</v>
       </c>
       <c r="S34">
-        <v>0.0002195109382467815</v>
+        <v>2.351601384425194E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002492018498160973</v>
+        <v>2.672125607752247E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H35">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I35">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J35">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N35">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O35">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P35">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q35">
-        <v>14.6858637829555</v>
+        <v>2.074942687038667</v>
       </c>
       <c r="R35">
-        <v>88.115182697733</v>
+        <v>12.449656122232</v>
       </c>
       <c r="S35">
-        <v>7.379599822612735E-05</v>
+        <v>1.007033829994421E-05</v>
       </c>
       <c r="T35">
-        <v>5.585173238247048E-05</v>
+        <v>7.628619665512636E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H36">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I36">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J36">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N36">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O36">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P36">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q36">
-        <v>33.86138812765034</v>
+        <v>3.297782961879111</v>
       </c>
       <c r="R36">
-        <v>304.752493148853</v>
+        <v>29.680046656912</v>
       </c>
       <c r="S36">
-        <v>0.000170152397920404</v>
+        <v>1.600516017785113E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001931671043414669</v>
+        <v>1.818667000736875E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H37">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I37">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J37">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N37">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O37">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P37">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q37">
-        <v>32.14848123669233</v>
+        <v>3.651684431730667</v>
       </c>
       <c r="R37">
-        <v>289.336331130231</v>
+        <v>32.86515988557601</v>
       </c>
       <c r="S37">
-        <v>0.0001615450952955924</v>
+        <v>1.772275341477038E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001833955833723452</v>
+        <v>2.013837189973511E-05</v>
       </c>
     </row>
   </sheetData>
